--- a/0. Dati Iniziali/PortfolioMP_Prezzi.xlsx
+++ b/0. Dati Iniziali/PortfolioMP_Prezzi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0. Dati Iniziali\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PerixMonitor\0. Dati Iniziali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F7C172-7902-46FA-82BA-195BD7BE4EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C64BD97-6780-4A36-9CF4-91C02DDBCE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
+    <workbookView xWindow="15530" yWindow="600" windowWidth="22870" windowHeight="21000" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="55">
   <si>
     <t>Descrizione Titolo</t>
   </si>
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,11 +530,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -593,6 +608,543 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -627,185 +1179,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -820,18 +1193,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A644CB40-5D0E-4EC7-B73F-375AD248FD75}" name="Table1" displayName="Table1" ref="A1:I97" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="16">
-  <autoFilter ref="A1:I97" xr:uid="{A644CB40-5D0E-4EC7-B73F-375AD248FD75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A644CB40-5D0E-4EC7-B73F-375AD248FD75}" name="Table1" displayName="Table1" ref="A1:I353" totalsRowShown="0" headerRowDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:I353" xr:uid="{A644CB40-5D0E-4EC7-B73F-375AD248FD75}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{13244BAA-6E4E-45A8-BE73-4D4764516016}" name="Descrizione Titolo" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{F51F4DA1-A077-4914-80B4-AD8AFEA9ADAD}" name="ISIN" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C2133E33-0C58-4FAA-8AA3-38DFFFDB3BB4}" name="Quantità" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D1F0CC62-5D59-4DA0-8EAB-4BB138EF8A47}" name="Divisa" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{C9B3D54A-E0B9-4828-98B2-9CC4D10E4F29}" name="Prezzo Carico (EUR)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{D840105F-A0FF-48B3-B6D2-7C8E4E15D7F8}" name="Data (acquisto/vendita)" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{55060C3D-5427-4473-A5E5-D5782153505A}" name="Operazione" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{8247D659-8814-4F8E-BCA4-CB69E15D5754}" name="Prezzo Operazione (EUR)" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{CB075AA3-AE95-48F4-96AF-9F28838DD478}" name="Prezzo Corrente (EUR)" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{13244BAA-6E4E-45A8-BE73-4D4764516016}" name="Descrizione Titolo" dataDxfId="46" totalsRowDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{F51F4DA1-A077-4914-80B4-AD8AFEA9ADAD}" name="ISIN" dataDxfId="44" totalsRowDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{C2133E33-0C58-4FAA-8AA3-38DFFFDB3BB4}" name="Quantità" dataDxfId="42" totalsRowDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{D1F0CC62-5D59-4DA0-8EAB-4BB138EF8A47}" name="Divisa" dataDxfId="40" totalsRowDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{C9B3D54A-E0B9-4828-98B2-9CC4D10E4F29}" name="Prezzo Carico (EUR)" dataDxfId="38" totalsRowDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{D840105F-A0FF-48B3-B6D2-7C8E4E15D7F8}" name="Data (acquisto/vendita)" dataDxfId="36" totalsRowDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{55060C3D-5427-4473-A5E5-D5782153505A}" name="Operazione" dataDxfId="34" totalsRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{8247D659-8814-4F8E-BCA4-CB69E15D5754}" name="Prezzo Operazione (EUR)" dataDxfId="32" totalsRowDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{CB075AA3-AE95-48F4-96AF-9F28838DD478}" name="Prezzo Corrente (EUR)" dataDxfId="30" totalsRowDxfId="31"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1154,27 +1527,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840B4B52-5CB9-41B5-89C1-B1D0A0795C06}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I353"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74:I97"/>
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.9296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.53125" customWidth="1"/>
-    <col min="8" max="8" width="22.265625" customWidth="1"/>
-    <col min="9" max="9" width="21.9296875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.26953125" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1597,7 @@
         <v>33.770000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1610,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F25" si="0">EOMONTH(F2,-1)</f>
+        <f t="shared" ref="F3:F24" si="0">EOMONTH(F2,-1)</f>
         <v>46022</v>
       </c>
       <c r="G3" s="4"/>
@@ -1246,7 +1619,7 @@
         <v>32.229999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1641,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
@@ -1290,7 +1663,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1685,7 @@
         <v>33.630000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1707,7 @@
         <v>32.18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
@@ -1356,7 +1729,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
@@ -1378,7 +1751,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1773,7 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1795,7 @@
         <v>28.53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1817,7 @@
         <v>29.71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1839,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>11</v>
       </c>
@@ -1488,7 +1861,7 @@
         <v>31.74</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1883,7 @@
         <v>31.04</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>11</v>
       </c>
@@ -1532,7 +1905,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1927,7 @@
         <v>30.82</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>11</v>
       </c>
@@ -1576,7 +1949,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>11</v>
       </c>
@@ -1598,7 +1971,7 @@
         <v>29.24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +1993,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>11</v>
       </c>
@@ -1642,7 +2015,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>11</v>
       </c>
@@ -1664,7 +2037,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +2059,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +2081,7 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +2102,7 @@
         <v>28.58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +2123,7 @@
         <v>153.19999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
         <v>14</v>
       </c>
@@ -1772,7 +2145,7 @@
         <v>144.94</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
         <v>14</v>
       </c>
@@ -1794,7 +2167,7 @@
         <v>145.26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
         <v>14</v>
       </c>
@@ -1816,7 +2189,7 @@
         <v>143.96</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>14</v>
       </c>
@@ -1838,7 +2211,7 @@
         <v>143.59</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
         <v>14</v>
       </c>
@@ -1860,7 +2233,7 @@
         <v>140.28</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
         <v>14</v>
       </c>
@@ -1882,7 +2255,7 @@
         <v>132.69</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="27" t="s">
         <v>14</v>
       </c>
@@ -1904,7 +2277,7 @@
         <v>136.09</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
         <v>14</v>
       </c>
@@ -1926,7 +2299,7 @@
         <v>135.1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="27" t="s">
         <v>14</v>
       </c>
@@ -1948,7 +2321,7 @@
         <v>132.08000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="27" t="s">
         <v>14</v>
       </c>
@@ -1970,7 +2343,7 @@
         <v>130.6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
         <v>14</v>
       </c>
@@ -1992,7 +2365,7 @@
         <v>130.75</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="27" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2387,7 @@
         <v>124.47</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="27" t="s">
         <v>14</v>
       </c>
@@ -2036,7 +2409,7 @@
         <v>113.98</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="27" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2431,7 @@
         <v>117.37</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +2453,7 @@
         <v>115.04</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="27" t="s">
         <v>14</v>
       </c>
@@ -2102,7 +2475,7 @@
         <v>129.02000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
         <v>14</v>
       </c>
@@ -2124,7 +2497,7 @@
         <v>117.11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="27" t="s">
         <v>14</v>
       </c>
@@ -2146,7 +2519,7 @@
         <v>115.69</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="27" t="s">
         <v>14</v>
       </c>
@@ -2168,7 +2541,7 @@
         <v>109.54</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="27" t="s">
         <v>14</v>
       </c>
@@ -2190,7 +2563,7 @@
         <v>115.32</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="27" t="s">
         <v>14</v>
       </c>
@@ -2212,7 +2585,7 @@
         <v>115.59</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="27" t="s">
         <v>14</v>
       </c>
@@ -2234,7 +2607,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2628,7 @@
         <v>115.52</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="38" t="s">
         <v>15</v>
       </c>
@@ -2276,7 +2649,7 @@
         <v>383.83</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="s">
         <v>15</v>
       </c>
@@ -2298,7 +2671,7 @@
         <v>361.98</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="27" t="s">
         <v>15</v>
       </c>
@@ -2320,7 +2693,7 @@
         <v>350.59</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="27" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +2715,7 @@
         <v>335.31</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="27" t="s">
         <v>15</v>
       </c>
@@ -2364,7 +2737,7 @@
         <v>343.46</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="s">
         <v>15</v>
       </c>
@@ -2386,7 +2759,7 @@
         <v>339.79</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>15</v>
       </c>
@@ -2408,7 +2781,7 @@
         <v>317.3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="27" t="s">
         <v>15</v>
       </c>
@@ -2430,7 +2803,7 @@
         <v>322.19</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="27" t="s">
         <v>15</v>
       </c>
@@ -2452,7 +2825,7 @@
         <v>317.3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
         <v>15</v>
       </c>
@@ -2474,7 +2847,7 @@
         <v>314.3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="27" t="s">
         <v>15</v>
       </c>
@@ -2496,7 +2869,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="27" t="s">
         <v>15</v>
       </c>
@@ -2518,7 +2891,7 @@
         <v>289.20999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="27" t="s">
         <v>15</v>
       </c>
@@ -2540,7 +2913,7 @@
         <v>266.74</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="27" t="s">
         <v>15</v>
       </c>
@@ -2562,7 +2935,7 @@
         <v>238.04</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="27" t="s">
         <v>15</v>
       </c>
@@ -2584,7 +2957,7 @@
         <v>238.88</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="27" t="s">
         <v>15</v>
       </c>
@@ -2606,7 +2979,7 @@
         <v>241.28</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="27" t="s">
         <v>15</v>
       </c>
@@ -2628,7 +3001,7 @@
         <v>272.20999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="27" t="s">
         <v>15</v>
       </c>
@@ -2650,7 +3023,7 @@
         <v>248.46</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="27" t="s">
         <v>15</v>
       </c>
@@ -2672,7 +3045,7 @@
         <v>249.52</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="27" t="s">
         <v>15</v>
       </c>
@@ -2694,7 +3067,7 @@
         <v>233.26</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="27" t="s">
         <v>15</v>
       </c>
@@ -2716,7 +3089,7 @@
         <v>257.8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="27" t="s">
         <v>15</v>
       </c>
@@ -2738,7 +3111,7 @@
         <v>257.86</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="27" t="s">
         <v>15</v>
       </c>
@@ -2760,7 +3133,7 @@
         <v>261.94</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="27" t="s">
         <v>15</v>
       </c>
@@ -2781,7 +3154,7 @@
         <v>239.52</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="38" t="s">
         <v>16</v>
       </c>
@@ -2802,7 +3175,7 @@
         <v>9.06</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="27" t="s">
         <v>16</v>
       </c>
@@ -2815,7 +3188,8 @@
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="8">
-        <v>45669</v>
+        <f>EOMONTH(F74,-2)+1</f>
+        <v>45992</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="6"/>
@@ -2823,7 +3197,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="27" t="s">
         <v>16</v>
       </c>
@@ -2836,7 +3210,8 @@
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="8">
-        <v>45668</v>
+        <f t="shared" ref="F76:F121" si="3">EOMONTH(F75,-2)+1</f>
+        <v>45962</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="6"/>
@@ -2844,7 +3219,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="27" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +3232,8 @@
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="8">
-        <v>45667</v>
+        <f t="shared" si="3"/>
+        <v>45931</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="6"/>
@@ -2865,7 +3241,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="27" t="s">
         <v>16</v>
       </c>
@@ -2878,7 +3254,8 @@
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="8">
-        <v>45666</v>
+        <f t="shared" si="3"/>
+        <v>45901</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="6"/>
@@ -2886,7 +3263,7 @@
         <v>8.59</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="27" t="s">
         <v>16</v>
       </c>
@@ -2899,7 +3276,8 @@
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="8">
-        <v>45665</v>
+        <f t="shared" si="3"/>
+        <v>45870</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="6"/>
@@ -2907,7 +3285,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="27" t="s">
         <v>16</v>
       </c>
@@ -2920,7 +3298,8 @@
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="8">
-        <v>45664</v>
+        <f t="shared" si="3"/>
+        <v>45839</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="6"/>
@@ -2928,7 +3307,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="27" t="s">
         <v>16</v>
       </c>
@@ -2941,7 +3320,8 @@
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="8">
-        <v>45663</v>
+        <f t="shared" si="3"/>
+        <v>45809</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
@@ -2949,7 +3329,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="27" t="s">
         <v>16</v>
       </c>
@@ -2962,7 +3342,8 @@
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="8">
-        <v>45662</v>
+        <f t="shared" si="3"/>
+        <v>45778</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="6"/>
@@ -2970,7 +3351,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="27" t="s">
         <v>16</v>
       </c>
@@ -2983,7 +3364,8 @@
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="8">
-        <v>45661</v>
+        <f t="shared" si="3"/>
+        <v>45748</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="6"/>
@@ -2991,7 +3373,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="27" t="s">
         <v>16</v>
       </c>
@@ -3004,7 +3386,8 @@
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="8">
-        <v>45660</v>
+        <f t="shared" si="3"/>
+        <v>45717</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="6"/>
@@ -3012,7 +3395,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="27" t="s">
         <v>16</v>
       </c>
@@ -3025,7 +3408,8 @@
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="8">
-        <v>45659</v>
+        <f t="shared" si="3"/>
+        <v>45689</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="6"/>
@@ -3033,7 +3417,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
         <v>16</v>
       </c>
@@ -3046,6 +3430,7 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="8">
+        <f t="shared" si="3"/>
         <v>45658</v>
       </c>
       <c r="G86" s="5"/>
@@ -3054,7 +3439,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="27" t="s">
         <v>16</v>
       </c>
@@ -3067,7 +3452,8 @@
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="8">
-        <v>45303</v>
+        <f t="shared" si="3"/>
+        <v>45627</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="6"/>
@@ -3075,7 +3461,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="27" t="s">
         <v>16</v>
       </c>
@@ -3088,7 +3474,8 @@
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="8">
-        <v>45302</v>
+        <f t="shared" si="3"/>
+        <v>45597</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="6"/>
@@ -3096,7 +3483,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="27" t="s">
         <v>16</v>
       </c>
@@ -3109,7 +3496,8 @@
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="8">
-        <v>45301</v>
+        <f t="shared" si="3"/>
+        <v>45566</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="6"/>
@@ -3117,7 +3505,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="27" t="s">
         <v>16</v>
       </c>
@@ -3130,7 +3518,8 @@
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="8">
-        <v>45300</v>
+        <f t="shared" si="3"/>
+        <v>45536</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="6"/>
@@ -3138,7 +3527,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="27" t="s">
         <v>16</v>
       </c>
@@ -3151,7 +3540,8 @@
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="8">
-        <v>45299</v>
+        <f t="shared" si="3"/>
+        <v>45505</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="6"/>
@@ -3159,7 +3549,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="27" t="s">
         <v>16</v>
       </c>
@@ -3172,7 +3562,8 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="8">
-        <v>45298</v>
+        <f t="shared" si="3"/>
+        <v>45474</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="6"/>
@@ -3180,7 +3571,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="27" t="s">
         <v>16</v>
       </c>
@@ -3193,7 +3584,8 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="8">
-        <v>45297</v>
+        <f t="shared" si="3"/>
+        <v>45444</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="6"/>
@@ -3201,7 +3593,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="27" t="s">
         <v>16</v>
       </c>
@@ -3214,7 +3606,8 @@
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="8">
-        <v>45296</v>
+        <f t="shared" si="3"/>
+        <v>45413</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="6"/>
@@ -3222,7 +3615,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
         <v>16</v>
       </c>
@@ -3235,7 +3628,8 @@
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="8">
-        <v>45295</v>
+        <f t="shared" si="3"/>
+        <v>45383</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="6"/>
@@ -3243,7 +3637,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
         <v>16</v>
       </c>
@@ -3256,7 +3650,8 @@
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="8">
-        <v>45294</v>
+        <f t="shared" si="3"/>
+        <v>45352</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="6"/>
@@ -3264,7 +3659,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
         <v>16</v>
       </c>
@@ -3277,7 +3672,8 @@
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="8">
-        <v>45293</v>
+        <f t="shared" si="3"/>
+        <v>45323</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="6"/>
@@ -3285,24 +3681,5640 @@
         <v>7.79</v>
       </c>
     </row>
+    <row r="98" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="40"/>
+      <c r="D98" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="40"/>
+      <c r="F98" s="22">
+        <v>46023</v>
+      </c>
+      <c r="G98" s="41"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="43">
+        <v>112.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="8">
+        <f t="shared" si="3"/>
+        <v>45992</v>
+      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="30">
+        <v>111.81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="8">
+        <f t="shared" si="3"/>
+        <v>45962</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="30">
+        <v>111.43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="8">
+        <f t="shared" si="3"/>
+        <v>45931</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="30">
+        <v>111.82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="8">
+        <f t="shared" si="3"/>
+        <v>45901</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="30">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="8">
+        <f t="shared" si="3"/>
+        <v>45870</v>
+      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="30">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="7"/>
+      <c r="F104" s="8">
+        <f t="shared" si="3"/>
+        <v>45839</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="30">
+        <v>104.93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="8">
+        <f t="shared" si="3"/>
+        <v>45809</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="30">
+        <v>100.15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="8">
+        <f t="shared" si="3"/>
+        <v>45778</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="30">
+        <v>99.27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="7"/>
+      <c r="F107" s="8">
+        <f t="shared" si="3"/>
+        <v>45748</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="30">
+        <v>93.34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="8">
+        <f t="shared" si="3"/>
+        <v>45717</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="30">
+        <v>97.11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="7"/>
+      <c r="F109" s="8">
+        <f t="shared" si="3"/>
+        <v>45689</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="30">
+        <v>105.43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="8">
+        <f t="shared" si="3"/>
+        <v>45658</v>
+      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="30">
+        <v>108.19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="8">
+        <f t="shared" si="3"/>
+        <v>45627</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="30">
+        <v>103.93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="8">
+        <f t="shared" si="3"/>
+        <v>45597</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="30">
+        <v>104.84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="8">
+        <f t="shared" si="3"/>
+        <v>45566</v>
+      </c>
+      <c r="G113" s="5"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="30">
+        <v>97.55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="8">
+        <f t="shared" si="3"/>
+        <v>45536</v>
+      </c>
+      <c r="G114" s="5"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="30">
+        <v>96.39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="8">
+        <f t="shared" si="3"/>
+        <v>45505</v>
+      </c>
+      <c r="G115" s="5"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="30">
+        <v>95.07</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="8">
+        <f t="shared" si="3"/>
+        <v>45474</v>
+      </c>
+      <c r="G116" s="5"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="30">
+        <v>95.37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="8">
+        <f t="shared" si="3"/>
+        <v>45444</v>
+      </c>
+      <c r="G117" s="5"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="30">
+        <v>95.18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="8">
+        <f t="shared" si="3"/>
+        <v>45413</v>
+      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="30">
+        <v>90.69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="8">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="30">
+        <v>89.58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="8">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="30">
+        <v>91.44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="8">
+        <f t="shared" si="3"/>
+        <v>45323</v>
+      </c>
+      <c r="G121" s="5"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="30">
+        <v>88.17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="40"/>
+      <c r="D122" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="40"/>
+      <c r="F122" s="44">
+        <v>46053</v>
+      </c>
+      <c r="G122" s="41"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="43">
+        <v>20.565999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="35">
+        <f>EOMONTH(F122,-1)</f>
+        <v>46022</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="30">
+        <v>19.82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="35">
+        <f t="shared" ref="F124:F144" si="4">EOMONTH(F123,-1)</f>
+        <v>45991</v>
+      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="30">
+        <v>19.492999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="35">
+        <f t="shared" si="4"/>
+        <v>45961</v>
+      </c>
+      <c r="G125" s="5"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="30">
+        <v>19.167999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="35">
+        <f t="shared" si="4"/>
+        <v>45930</v>
+      </c>
+      <c r="G126" s="5"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="30">
+        <v>18.725000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="35">
+        <f t="shared" si="4"/>
+        <v>45900</v>
+      </c>
+      <c r="G127" s="5"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="30">
+        <v>18.184000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="35">
+        <f t="shared" si="4"/>
+        <v>45869</v>
+      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="30">
+        <v>18.065999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="35">
+        <f t="shared" si="4"/>
+        <v>45838</v>
+      </c>
+      <c r="G129" s="5"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="30">
+        <v>17.994</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="35">
+        <f t="shared" si="4"/>
+        <v>45808</v>
+      </c>
+      <c r="G130" s="5"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="30">
+        <v>17.140999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="35">
+        <f t="shared" si="4"/>
+        <v>45777</v>
+      </c>
+      <c r="G131" s="5"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="30">
+        <v>17.088000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="35">
+        <f t="shared" si="4"/>
+        <v>45747</v>
+      </c>
+      <c r="G132" s="5"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="30">
+        <v>17.411999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="35">
+        <f t="shared" si="4"/>
+        <v>45716</v>
+      </c>
+      <c r="G133" s="5"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="30">
+        <v>16.088000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="35">
+        <f t="shared" si="4"/>
+        <v>45688</v>
+      </c>
+      <c r="G134" s="5"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="30">
+        <v>15.507999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="35">
+        <f t="shared" si="4"/>
+        <v>45657</v>
+      </c>
+      <c r="G135" s="5"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="30">
+        <v>15.551</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="35">
+        <f t="shared" si="4"/>
+        <v>45626</v>
+      </c>
+      <c r="G136" s="5"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="30">
+        <v>15.557</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="35">
+        <f t="shared" si="4"/>
+        <v>45596</v>
+      </c>
+      <c r="G137" s="5"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="30">
+        <v>15.759</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="7"/>
+      <c r="F138" s="35">
+        <f t="shared" si="4"/>
+        <v>45565</v>
+      </c>
+      <c r="G138" s="5"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="30">
+        <v>15.695</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="7"/>
+      <c r="F139" s="35">
+        <f t="shared" si="4"/>
+        <v>45535</v>
+      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="30">
+        <v>15.489000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="7"/>
+      <c r="F140" s="35">
+        <f t="shared" si="4"/>
+        <v>45504</v>
+      </c>
+      <c r="G140" s="5"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="30">
+        <v>15.115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="35">
+        <f t="shared" si="4"/>
+        <v>45473</v>
+      </c>
+      <c r="G141" s="5"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="30">
+        <v>15.635999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="7"/>
+      <c r="F142" s="35">
+        <f t="shared" si="4"/>
+        <v>45443</v>
+      </c>
+      <c r="G142" s="5"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="30">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="35">
+        <f t="shared" si="4"/>
+        <v>45412</v>
+      </c>
+      <c r="G143" s="5"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="30">
+        <v>14.744999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="7"/>
+      <c r="F144" s="35">
+        <f t="shared" si="4"/>
+        <v>45382</v>
+      </c>
+      <c r="G144" s="5"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="30">
+        <v>13.974</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145" s="40"/>
+      <c r="D145" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="40"/>
+      <c r="F145" s="44">
+        <v>45700</v>
+      </c>
+      <c r="G145" s="41"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="35">
+        <v>45720</v>
+      </c>
+      <c r="G146" s="5"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="30">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="7"/>
+      <c r="F147" s="35">
+        <v>45729</v>
+      </c>
+      <c r="G147" s="5"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="30">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="7"/>
+      <c r="F148" s="35">
+        <v>45741</v>
+      </c>
+      <c r="G148" s="5"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="30">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="7"/>
+      <c r="F149" s="35">
+        <v>45755</v>
+      </c>
+      <c r="G149" s="5"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="30">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="7"/>
+      <c r="F150" s="35">
+        <v>45770</v>
+      </c>
+      <c r="G150" s="5"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="30">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="35">
+        <v>45789</v>
+      </c>
+      <c r="G151" s="5"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="30">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="7"/>
+      <c r="F152" s="35">
+        <v>45796</v>
+      </c>
+      <c r="G152" s="5"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="30">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="7"/>
+      <c r="F153" s="35">
+        <v>45818</v>
+      </c>
+      <c r="G153" s="5"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="30">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="35">
+        <v>45860</v>
+      </c>
+      <c r="G154" s="5"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="30">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="7"/>
+      <c r="F155" s="35">
+        <v>45898</v>
+      </c>
+      <c r="G155" s="5"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="30">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="7"/>
+      <c r="F156" s="35">
+        <v>45918</v>
+      </c>
+      <c r="G156" s="5"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="30">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="7"/>
+      <c r="F157" s="35">
+        <v>45937</v>
+      </c>
+      <c r="G157" s="5"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="30">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="7"/>
+      <c r="F158" s="35">
+        <v>45947</v>
+      </c>
+      <c r="G158" s="5"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="30">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="35">
+        <v>45964</v>
+      </c>
+      <c r="G159" s="5"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="30">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="7"/>
+      <c r="F160" s="35">
+        <v>45982</v>
+      </c>
+      <c r="G160" s="5"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="30">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="35">
+        <v>45989</v>
+      </c>
+      <c r="G161" s="5"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="30">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="7"/>
+      <c r="F162" s="35">
+        <v>46009</v>
+      </c>
+      <c r="G162" s="5"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="30">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="35">
+        <v>46022</v>
+      </c>
+      <c r="G163" s="5"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="30">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" s="7"/>
+      <c r="D164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="7"/>
+      <c r="F164" s="35">
+        <v>45669</v>
+      </c>
+      <c r="G164" s="5"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="30">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="7"/>
+      <c r="F165" s="35">
+        <v>46043</v>
+      </c>
+      <c r="G165" s="5"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="30">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="7"/>
+      <c r="F166" s="35">
+        <v>46045</v>
+      </c>
+      <c r="G166" s="5"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="7"/>
+      <c r="F167" s="35">
+        <v>46050</v>
+      </c>
+      <c r="G167" s="5"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="30">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" s="40"/>
+      <c r="D168" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="40"/>
+      <c r="F168" s="44">
+        <v>46053</v>
+      </c>
+      <c r="G168" s="41"/>
+      <c r="H168" s="42"/>
+      <c r="I168" s="43">
+        <v>178.88</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="D169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="7"/>
+      <c r="F169" s="35">
+        <f>EOMONTH(F168,-1)</f>
+        <v>46022</v>
+      </c>
+      <c r="G169" s="5"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="30">
+        <v>188.55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="7"/>
+      <c r="F170" s="35">
+        <f t="shared" ref="F170:F190" si="5">EOMONTH(F169,-1)</f>
+        <v>45991</v>
+      </c>
+      <c r="G170" s="5"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="30">
+        <v>189.84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="35">
+        <f t="shared" si="5"/>
+        <v>45961</v>
+      </c>
+      <c r="G171" s="5"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="30">
+        <v>191.52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="7"/>
+      <c r="F172" s="35">
+        <f t="shared" si="5"/>
+        <v>45930</v>
+      </c>
+      <c r="G172" s="5"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="30">
+        <v>193.84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="7"/>
+      <c r="F173" s="35">
+        <f t="shared" si="5"/>
+        <v>45900</v>
+      </c>
+      <c r="G173" s="5"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="30">
+        <v>199.48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="7"/>
+      <c r="F174" s="35">
+        <f t="shared" si="5"/>
+        <v>45869</v>
+      </c>
+      <c r="G174" s="5"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="30">
+        <v>205.93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C175" s="7"/>
+      <c r="D175" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="7"/>
+      <c r="F175" s="35">
+        <f t="shared" si="5"/>
+        <v>45838</v>
+      </c>
+      <c r="G175" s="5"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="30">
+        <v>200.75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="7"/>
+      <c r="F176" s="35">
+        <f t="shared" si="5"/>
+        <v>45808</v>
+      </c>
+      <c r="G176" s="5"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="30">
+        <v>208.33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A177" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="35">
+        <f t="shared" si="5"/>
+        <v>45777</v>
+      </c>
+      <c r="G177" s="5"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="30">
+        <v>196.24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="7"/>
+      <c r="F178" s="35">
+        <f t="shared" si="5"/>
+        <v>45747</v>
+      </c>
+      <c r="G178" s="5"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="30">
+        <v>209.12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="7"/>
+      <c r="F179" s="35">
+        <f t="shared" si="5"/>
+        <v>45716</v>
+      </c>
+      <c r="G179" s="5"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="30">
+        <v>222.33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A180" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="7"/>
+      <c r="F180" s="35">
+        <f t="shared" si="5"/>
+        <v>45688</v>
+      </c>
+      <c r="G180" s="5"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="30">
+        <v>225.84</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="7"/>
+      <c r="F181" s="35">
+        <f t="shared" si="5"/>
+        <v>45657</v>
+      </c>
+      <c r="G181" s="5"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="30">
+        <v>214.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" s="7"/>
+      <c r="D182" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="7"/>
+      <c r="F182" s="35">
+        <f t="shared" si="5"/>
+        <v>45626</v>
+      </c>
+      <c r="G182" s="5"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="30">
+        <v>216.15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C183" s="7"/>
+      <c r="D183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="7"/>
+      <c r="F183" s="35">
+        <f t="shared" si="5"/>
+        <v>45596</v>
+      </c>
+      <c r="G183" s="5"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="30">
+        <v>205.45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="7"/>
+      <c r="F184" s="35">
+        <f t="shared" si="5"/>
+        <v>45565</v>
+      </c>
+      <c r="G184" s="5"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="30">
+        <v>206.06</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="7"/>
+      <c r="F185" s="35">
+        <f t="shared" si="5"/>
+        <v>45535</v>
+      </c>
+      <c r="G185" s="5"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="30">
+        <v>203.38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="7"/>
+      <c r="F186" s="35">
+        <f t="shared" si="5"/>
+        <v>45504</v>
+      </c>
+      <c r="G186" s="5"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="30">
+        <v>200.78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="7"/>
+      <c r="F187" s="35">
+        <f t="shared" si="5"/>
+        <v>45473</v>
+      </c>
+      <c r="G187" s="5"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="30">
+        <v>197.53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="7"/>
+      <c r="F188" s="35">
+        <f t="shared" si="5"/>
+        <v>45443</v>
+      </c>
+      <c r="G188" s="5"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="30">
+        <v>189.65</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="7"/>
+      <c r="F189" s="35">
+        <f t="shared" si="5"/>
+        <v>45412</v>
+      </c>
+      <c r="G189" s="5"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="30">
+        <v>191.45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="7"/>
+      <c r="F190" s="35">
+        <f t="shared" si="5"/>
+        <v>45382</v>
+      </c>
+      <c r="G190" s="5"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="30">
+        <v>199.57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C191" s="40"/>
+      <c r="D191" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="40"/>
+      <c r="F191" s="44">
+        <v>46053</v>
+      </c>
+      <c r="G191" s="41"/>
+      <c r="H191" s="42"/>
+      <c r="I191" s="43">
+        <v>134.78</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="7"/>
+      <c r="F192" s="35">
+        <f>EOMONTH(F191,-1)</f>
+        <v>46022</v>
+      </c>
+      <c r="G192" s="5"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="30">
+        <v>137.12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="7"/>
+      <c r="F193" s="35">
+        <f t="shared" ref="F193:F213" si="6">EOMONTH(F192,-1)</f>
+        <v>45991</v>
+      </c>
+      <c r="G193" s="5"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="30">
+        <v>136.58000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C194" s="7"/>
+      <c r="D194" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="7"/>
+      <c r="F194" s="35">
+        <f t="shared" si="6"/>
+        <v>45961</v>
+      </c>
+      <c r="G194" s="5"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="30">
+        <v>145.01</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C195" s="7"/>
+      <c r="D195" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="7"/>
+      <c r="F195" s="35">
+        <f t="shared" si="6"/>
+        <v>45930</v>
+      </c>
+      <c r="G195" s="5"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="30">
+        <v>142.58000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C196" s="7"/>
+      <c r="D196" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="7"/>
+      <c r="F196" s="35">
+        <f t="shared" si="6"/>
+        <v>45900</v>
+      </c>
+      <c r="G196" s="5"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="30">
+        <v>139.96</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="D197" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="35">
+        <f t="shared" si="6"/>
+        <v>45869</v>
+      </c>
+      <c r="G197" s="5"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="30">
+        <v>143.13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C198" s="7"/>
+      <c r="D198" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="7"/>
+      <c r="F198" s="35">
+        <f t="shared" si="6"/>
+        <v>45838</v>
+      </c>
+      <c r="G198" s="5"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="30">
+        <v>142.94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="D199" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="7"/>
+      <c r="F199" s="35">
+        <f t="shared" si="6"/>
+        <v>45808</v>
+      </c>
+      <c r="G199" s="5"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="30">
+        <v>139.54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C200" s="7"/>
+      <c r="D200" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="7"/>
+      <c r="F200" s="35">
+        <f t="shared" si="6"/>
+        <v>45777</v>
+      </c>
+      <c r="G200" s="5"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="30">
+        <v>127.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C201" s="7"/>
+      <c r="D201" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="7"/>
+      <c r="F201" s="35">
+        <f t="shared" si="6"/>
+        <v>45747</v>
+      </c>
+      <c r="G201" s="5"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="30">
+        <v>128.66</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="7"/>
+      <c r="F202" s="35">
+        <f t="shared" si="6"/>
+        <v>45716</v>
+      </c>
+      <c r="G202" s="5"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="30">
+        <v>145.03</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C203" s="7"/>
+      <c r="D203" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="7"/>
+      <c r="F203" s="35">
+        <f t="shared" si="6"/>
+        <v>45688</v>
+      </c>
+      <c r="G203" s="5"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="30">
+        <v>150.03</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="7"/>
+      <c r="F204" s="35">
+        <f t="shared" si="6"/>
+        <v>45657</v>
+      </c>
+      <c r="G204" s="5"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="30">
+        <v>139.55000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="D205" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="7"/>
+      <c r="F205" s="35">
+        <f t="shared" si="6"/>
+        <v>45626</v>
+      </c>
+      <c r="G205" s="5"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="30">
+        <v>140.61000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C206" s="7"/>
+      <c r="D206" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="7"/>
+      <c r="F206" s="35">
+        <f t="shared" si="6"/>
+        <v>45596</v>
+      </c>
+      <c r="G206" s="5"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="30">
+        <v>128.83000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C207" s="7"/>
+      <c r="D207" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="7"/>
+      <c r="F207" s="35">
+        <f t="shared" si="6"/>
+        <v>45565</v>
+      </c>
+      <c r="G207" s="5"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="30">
+        <v>125.25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A208" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C208" s="7"/>
+      <c r="D208" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="7"/>
+      <c r="F208" s="35">
+        <f t="shared" si="6"/>
+        <v>45535</v>
+      </c>
+      <c r="G208" s="5"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="30">
+        <v>118.23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C209" s="7"/>
+      <c r="D209" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="7"/>
+      <c r="F209" s="35">
+        <f t="shared" si="6"/>
+        <v>45504</v>
+      </c>
+      <c r="G209" s="5"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="30">
+        <v>113.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C210" s="7"/>
+      <c r="D210" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="7"/>
+      <c r="F210" s="35">
+        <f t="shared" si="6"/>
+        <v>45473</v>
+      </c>
+      <c r="G210" s="5"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="30">
+        <v>118.91</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A211" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C211" s="7"/>
+      <c r="D211" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="7"/>
+      <c r="F211" s="35">
+        <f t="shared" si="6"/>
+        <v>45443</v>
+      </c>
+      <c r="G211" s="5"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="30">
+        <v>111.53</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A212" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C212" s="7"/>
+      <c r="D212" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="7"/>
+      <c r="F212" s="35">
+        <f t="shared" si="6"/>
+        <v>45412</v>
+      </c>
+      <c r="G212" s="5"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="30">
+        <v>115.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A213" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C213" s="7"/>
+      <c r="D213" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="7"/>
+      <c r="F213" s="35">
+        <f t="shared" si="6"/>
+        <v>45382</v>
+      </c>
+      <c r="G213" s="5"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="30">
+        <v>119.03</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B214" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C214" s="40"/>
+      <c r="D214" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="40"/>
+      <c r="F214" s="44">
+        <v>46053</v>
+      </c>
+      <c r="G214" s="41"/>
+      <c r="H214" s="42"/>
+      <c r="I214" s="43">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A215" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C215" s="7"/>
+      <c r="D215" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="7"/>
+      <c r="F215" s="35">
+        <f>EOMONTH(F214,-1)</f>
+        <v>46022</v>
+      </c>
+      <c r="G215" s="5"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="30">
+        <v>34.171999999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A216" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C216" s="7"/>
+      <c r="D216" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="7"/>
+      <c r="F216" s="35">
+        <f t="shared" ref="F216:F236" si="7">EOMONTH(F215,-1)</f>
+        <v>45991</v>
+      </c>
+      <c r="G216" s="5"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="30">
+        <v>34.558</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A217" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C217" s="7"/>
+      <c r="D217" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="7"/>
+      <c r="F217" s="35">
+        <f t="shared" si="7"/>
+        <v>45961</v>
+      </c>
+      <c r="G217" s="5"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="30">
+        <v>35.603999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A218" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C218" s="7"/>
+      <c r="D218" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="7"/>
+      <c r="F218" s="35">
+        <f t="shared" si="7"/>
+        <v>45930</v>
+      </c>
+      <c r="G218" s="5"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="30">
+        <v>34.231999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A219" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C219" s="7"/>
+      <c r="D219" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="7"/>
+      <c r="F219" s="35">
+        <f t="shared" si="7"/>
+        <v>45900</v>
+      </c>
+      <c r="G219" s="5"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="30">
+        <v>33.585000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A220" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C220" s="7"/>
+      <c r="D220" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="7"/>
+      <c r="F220" s="35">
+        <f t="shared" si="7"/>
+        <v>45869</v>
+      </c>
+      <c r="G220" s="5"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="30">
+        <v>34.164999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A221" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C221" s="7"/>
+      <c r="D221" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="7"/>
+      <c r="F221" s="35">
+        <f t="shared" si="7"/>
+        <v>45838</v>
+      </c>
+      <c r="G221" s="5"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="30">
+        <v>32.673000000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A222" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C222" s="7"/>
+      <c r="D222" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="7"/>
+      <c r="F222" s="35">
+        <f t="shared" si="7"/>
+        <v>45808</v>
+      </c>
+      <c r="G222" s="5"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="30">
+        <v>32.520000000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A223" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" s="7"/>
+      <c r="D223" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="7"/>
+      <c r="F223" s="35">
+        <f t="shared" si="7"/>
+        <v>45777</v>
+      </c>
+      <c r="G223" s="5"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="30">
+        <v>30.423999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A224" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224" s="7"/>
+      <c r="D224" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="7"/>
+      <c r="F224" s="35">
+        <f t="shared" si="7"/>
+        <v>45747</v>
+      </c>
+      <c r="G224" s="5"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="30">
+        <v>31.577999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A225" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C225" s="7"/>
+      <c r="D225" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="7"/>
+      <c r="F225" s="35">
+        <f t="shared" si="7"/>
+        <v>45716</v>
+      </c>
+      <c r="G225" s="5"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="30">
+        <v>33.758000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" s="7"/>
+      <c r="D226" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="7"/>
+      <c r="F226" s="35">
+        <f t="shared" si="7"/>
+        <v>45688</v>
+      </c>
+      <c r="G226" s="5"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="30">
+        <v>35.075000000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A227" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C227" s="7"/>
+      <c r="D227" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="7"/>
+      <c r="F227" s="35">
+        <f t="shared" si="7"/>
+        <v>45657</v>
+      </c>
+      <c r="G227" s="5"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="30">
+        <v>33.816000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C228" s="7"/>
+      <c r="D228" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="7"/>
+      <c r="F228" s="35">
+        <f t="shared" si="7"/>
+        <v>45626</v>
+      </c>
+      <c r="G228" s="5"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="30">
+        <v>34.966000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A229" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C229" s="7"/>
+      <c r="D229" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="7"/>
+      <c r="F229" s="35">
+        <f t="shared" si="7"/>
+        <v>45596</v>
+      </c>
+      <c r="G229" s="5"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="30">
+        <v>32.347000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A230" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C230" s="7"/>
+      <c r="D230" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="7"/>
+      <c r="F230" s="35">
+        <f t="shared" si="7"/>
+        <v>45565</v>
+      </c>
+      <c r="G230" s="5"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="30">
+        <v>33.081000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C231" s="7"/>
+      <c r="D231" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="7"/>
+      <c r="F231" s="35">
+        <f t="shared" si="7"/>
+        <v>45535</v>
+      </c>
+      <c r="G231" s="5"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="30">
+        <v>33.045999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C232" s="7"/>
+      <c r="D232" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="7"/>
+      <c r="F232" s="35">
+        <f t="shared" si="7"/>
+        <v>45504</v>
+      </c>
+      <c r="G232" s="5"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="30">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A233" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C233" s="7"/>
+      <c r="D233" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="7"/>
+      <c r="F233" s="35">
+        <f t="shared" si="7"/>
+        <v>45473</v>
+      </c>
+      <c r="G233" s="5"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="30">
+        <v>32.874000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A234" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C234" s="7"/>
+      <c r="D234" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="7"/>
+      <c r="F234" s="35">
+        <f t="shared" si="7"/>
+        <v>45443</v>
+      </c>
+      <c r="G234" s="5"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="30">
+        <v>32.549999999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A235" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C235" s="7"/>
+      <c r="D235" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="7"/>
+      <c r="F235" s="35">
+        <f t="shared" si="7"/>
+        <v>45412</v>
+      </c>
+      <c r="G235" s="5"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="30">
+        <v>31.893999999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A236" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C236" s="7"/>
+      <c r="D236" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="7"/>
+      <c r="F236" s="35">
+        <f t="shared" si="7"/>
+        <v>45382</v>
+      </c>
+      <c r="G236" s="5"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="30">
+        <v>32.835999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C237" s="40"/>
+      <c r="D237" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="40"/>
+      <c r="F237" s="44">
+        <v>46053</v>
+      </c>
+      <c r="G237" s="41"/>
+      <c r="H237" s="42"/>
+      <c r="I237" s="43">
+        <v>210.916</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A238" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C238" s="7"/>
+      <c r="D238" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="7"/>
+      <c r="F238" s="8">
+        <v>46022</v>
+      </c>
+      <c r="G238" s="5"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="30">
+        <v>209.27500000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A239" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C239" s="7"/>
+      <c r="D239" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" s="7"/>
+      <c r="F239" s="8">
+        <v>45991</v>
+      </c>
+      <c r="G239" s="5"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="30">
+        <v>208.947</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A240" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C240" s="7"/>
+      <c r="D240" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="7"/>
+      <c r="F240" s="8">
+        <v>45961</v>
+      </c>
+      <c r="G240" s="5"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="30">
+        <v>209.13499999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A241" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C241" s="7"/>
+      <c r="D241" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="7"/>
+      <c r="F241" s="8">
+        <v>45930</v>
+      </c>
+      <c r="G241" s="5"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="30">
+        <v>208.471</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A242" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C242" s="7"/>
+      <c r="D242" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="7"/>
+      <c r="F242" s="8">
+        <v>45900</v>
+      </c>
+      <c r="G242" s="5"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="30">
+        <v>207.316</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A243" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C243" s="7"/>
+      <c r="D243" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="7"/>
+      <c r="F243" s="8">
+        <v>45869</v>
+      </c>
+      <c r="G243" s="5"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="30">
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A244" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C244" s="7"/>
+      <c r="D244" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="7"/>
+      <c r="F244" s="8">
+        <v>45838</v>
+      </c>
+      <c r="G244" s="5"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="30">
+        <v>204.71899999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A245" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C245" s="7"/>
+      <c r="D245" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="7"/>
+      <c r="F245" s="8">
+        <v>45808</v>
+      </c>
+      <c r="G245" s="5"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="30">
+        <v>203.244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A246" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" s="7"/>
+      <c r="D246" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="7"/>
+      <c r="F246" s="8">
+        <v>45777</v>
+      </c>
+      <c r="G246" s="5"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="30">
+        <v>201.322</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A247" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C247" s="7"/>
+      <c r="D247" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" s="7"/>
+      <c r="F247" s="8">
+        <v>45747</v>
+      </c>
+      <c r="G247" s="5"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="30">
+        <v>201.167</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A248" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C248" s="7"/>
+      <c r="D248" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="7"/>
+      <c r="F248" s="8">
+        <v>45716</v>
+      </c>
+      <c r="G248" s="5"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="30">
+        <v>202.60499999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A249" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C249" s="7"/>
+      <c r="D249" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="7"/>
+      <c r="F249" s="8">
+        <v>45688</v>
+      </c>
+      <c r="G249" s="5"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="30">
+        <v>201.36099999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A250" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C250" s="7"/>
+      <c r="D250" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="7"/>
+      <c r="F250" s="8">
+        <v>45657</v>
+      </c>
+      <c r="G250" s="5"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="30">
+        <v>200.054</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A251" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C251" s="7"/>
+      <c r="D251" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="7"/>
+      <c r="F251" s="8">
+        <v>45626</v>
+      </c>
+      <c r="G251" s="5"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="30">
+        <v>198.53399999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A252" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C252" s="7"/>
+      <c r="D252" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="7"/>
+      <c r="F252" s="8">
+        <v>45596</v>
+      </c>
+      <c r="G252" s="5"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="30">
+        <v>196.495</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A253" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C253" s="7"/>
+      <c r="D253" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="7"/>
+      <c r="F253" s="8">
+        <v>45565</v>
+      </c>
+      <c r="G253" s="5"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="30">
+        <v>195.28700000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A254" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C254" s="7"/>
+      <c r="D254" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" s="7"/>
+      <c r="F254" s="8">
+        <v>45535</v>
+      </c>
+      <c r="G254" s="5"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="30">
+        <v>193.14699999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A255" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C255" s="7"/>
+      <c r="D255" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="7"/>
+      <c r="F255" s="8">
+        <v>45504</v>
+      </c>
+      <c r="G255" s="5"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="30">
+        <v>192.048</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A256" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C256" s="7"/>
+      <c r="D256" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="7"/>
+      <c r="F256" s="8">
+        <v>45473</v>
+      </c>
+      <c r="G256" s="5"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="30">
+        <v>189.1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A257" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C257" s="7"/>
+      <c r="D257" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" s="7"/>
+      <c r="F257" s="8">
+        <v>45443</v>
+      </c>
+      <c r="G257" s="5"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="30">
+        <v>188.49700000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A258" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C258" s="7"/>
+      <c r="D258" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" s="7"/>
+      <c r="F258" s="8">
+        <v>45412</v>
+      </c>
+      <c r="G258" s="5"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="30">
+        <v>186.006</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A259" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C259" s="7"/>
+      <c r="D259" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" s="7"/>
+      <c r="F259" s="8">
+        <v>45382</v>
+      </c>
+      <c r="G259" s="5"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="30">
+        <v>185.995</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B260" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C260" s="40"/>
+      <c r="D260" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260" s="40"/>
+      <c r="F260" s="44">
+        <v>46053</v>
+      </c>
+      <c r="G260" s="41"/>
+      <c r="H260" s="42"/>
+      <c r="I260" s="43">
+        <v>80.97</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A261" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C261" s="7"/>
+      <c r="D261" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" s="7"/>
+      <c r="F261" s="8">
+        <v>46022</v>
+      </c>
+      <c r="G261" s="5"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="30">
+        <v>79.534999999999997</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A262" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C262" s="7"/>
+      <c r="D262" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="7"/>
+      <c r="F262" s="8">
+        <v>45991</v>
+      </c>
+      <c r="G262" s="5"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="30">
+        <v>80.942999999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A263" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C263" s="7"/>
+      <c r="D263" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="7"/>
+      <c r="F263" s="8">
+        <v>45961</v>
+      </c>
+      <c r="G263" s="5"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="30">
+        <v>81.263999999999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A264" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C264" s="7"/>
+      <c r="D264" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="7"/>
+      <c r="F264" s="8">
+        <v>45930</v>
+      </c>
+      <c r="G264" s="5"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="30">
+        <v>77.891000000000005</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A265" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C265" s="7"/>
+      <c r="D265" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="7"/>
+      <c r="F265" s="8">
+        <v>45900</v>
+      </c>
+      <c r="G265" s="5"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="30">
+        <v>74.888000000000005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A266" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C266" s="7"/>
+      <c r="D266" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="7"/>
+      <c r="F266" s="8">
+        <v>45869</v>
+      </c>
+      <c r="G266" s="5"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="30">
+        <v>75.534000000000006</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A267" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C267" s="7"/>
+      <c r="D267" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="7"/>
+      <c r="F267" s="8">
+        <v>45838</v>
+      </c>
+      <c r="G267" s="5"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="30">
+        <v>75.308999999999997</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A268" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C268" s="7"/>
+      <c r="D268" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" s="7"/>
+      <c r="F268" s="8">
+        <v>45808</v>
+      </c>
+      <c r="G268" s="5"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="30">
+        <v>74.454999999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A269" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C269" s="7"/>
+      <c r="D269" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" s="7"/>
+      <c r="F269" s="8">
+        <v>45777</v>
+      </c>
+      <c r="G269" s="5"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="30">
+        <v>72.510000000000005</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A270" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C270" s="7"/>
+      <c r="D270" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="7"/>
+      <c r="F270" s="8">
+        <v>45747</v>
+      </c>
+      <c r="G270" s="5"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="30">
+        <v>75.701999999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A271" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C271" s="7"/>
+      <c r="D271" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" s="7"/>
+      <c r="F271" s="8">
+        <v>45716</v>
+      </c>
+      <c r="G271" s="5"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="30">
+        <v>80.581000000000003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A272" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C272" s="7"/>
+      <c r="D272" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="7"/>
+      <c r="F272" s="8">
+        <v>45688</v>
+      </c>
+      <c r="G272" s="5"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="30">
+        <v>78.296000000000006</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A273" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C273" s="7"/>
+      <c r="D273" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="7"/>
+      <c r="F273" s="8">
+        <v>45657</v>
+      </c>
+      <c r="G273" s="5"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="30">
+        <v>78.381</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A274" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C274" s="7"/>
+      <c r="D274" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="7"/>
+      <c r="F274" s="8">
+        <v>45626</v>
+      </c>
+      <c r="G274" s="5"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="30">
+        <v>80.619</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A275" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C275" s="7"/>
+      <c r="D275" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="7"/>
+      <c r="F275" s="8">
+        <v>45596</v>
+      </c>
+      <c r="G275" s="5"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="30">
+        <v>77.882000000000005</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A276" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C276" s="7"/>
+      <c r="D276" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="7"/>
+      <c r="F276" s="8">
+        <v>45565</v>
+      </c>
+      <c r="G276" s="5"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="30">
+        <v>81.161000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A277" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C277" s="7"/>
+      <c r="D277" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="7"/>
+      <c r="F277" s="8">
+        <v>45535</v>
+      </c>
+      <c r="G277" s="5"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="30">
+        <v>79.840999999999994</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A278" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C278" s="7"/>
+      <c r="D278" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="7"/>
+      <c r="F278" s="8">
+        <v>45504</v>
+      </c>
+      <c r="G278" s="5"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="30">
+        <v>76.789000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A279" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C279" s="7"/>
+      <c r="D279" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="7"/>
+      <c r="F279" s="8">
+        <v>45473</v>
+      </c>
+      <c r="G279" s="5"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="30">
+        <v>76.600999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A280" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C280" s="7"/>
+      <c r="D280" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="7"/>
+      <c r="F280" s="8">
+        <v>45443</v>
+      </c>
+      <c r="G280" s="5"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="30">
+        <v>76.486999999999995</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A281" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C281" s="7"/>
+      <c r="D281" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="7"/>
+      <c r="F281" s="8">
+        <v>45412</v>
+      </c>
+      <c r="G281" s="5"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="30">
+        <v>80.299000000000007</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A282" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C282" s="7"/>
+      <c r="D282" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="7"/>
+      <c r="F282" s="8">
+        <v>45382</v>
+      </c>
+      <c r="G282" s="5"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="30">
+        <v>84.463999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B283" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C283" s="40"/>
+      <c r="D283" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="40"/>
+      <c r="F283" s="44">
+        <v>46053</v>
+      </c>
+      <c r="G283" s="41"/>
+      <c r="H283" s="42"/>
+      <c r="I283" s="43">
+        <v>26.829000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A284" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C284" s="7"/>
+      <c r="D284" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="7"/>
+      <c r="F284" s="8">
+        <v>46022</v>
+      </c>
+      <c r="G284" s="5"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="30">
+        <v>25.108000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A285" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C285" s="7"/>
+      <c r="D285" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="7"/>
+      <c r="F285" s="8">
+        <v>45991</v>
+      </c>
+      <c r="G285" s="5"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="30">
+        <v>24.638000000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A286" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C286" s="7"/>
+      <c r="D286" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="7"/>
+      <c r="F286" s="8">
+        <v>45961</v>
+      </c>
+      <c r="G286" s="5"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="30">
+        <v>25.305</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A287" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C287" s="7"/>
+      <c r="D287" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" s="7"/>
+      <c r="F287" s="8">
+        <v>45930</v>
+      </c>
+      <c r="G287" s="5"/>
+      <c r="H287" s="6"/>
+      <c r="I287" s="30">
+        <v>23.975999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A288" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C288" s="7"/>
+      <c r="D288" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="7"/>
+      <c r="F288" s="8">
+        <v>45900</v>
+      </c>
+      <c r="G288" s="5"/>
+      <c r="H288" s="6"/>
+      <c r="I288" s="30">
+        <v>22.268000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A289" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C289" s="7"/>
+      <c r="D289" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="7"/>
+      <c r="F289" s="8">
+        <v>45869</v>
+      </c>
+      <c r="G289" s="5"/>
+      <c r="H289" s="6"/>
+      <c r="I289" s="30">
+        <v>22.077000000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A290" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C290" s="7"/>
+      <c r="D290" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="7"/>
+      <c r="F290" s="8">
+        <v>45838</v>
+      </c>
+      <c r="G290" s="5"/>
+      <c r="H290" s="6"/>
+      <c r="I290" s="30">
+        <v>20.695</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A291" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C291" s="7"/>
+      <c r="D291" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="7"/>
+      <c r="F291" s="8">
+        <v>45808</v>
+      </c>
+      <c r="G291" s="5"/>
+      <c r="H291" s="6"/>
+      <c r="I291" s="30">
+        <v>20.283999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A292" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C292" s="7"/>
+      <c r="D292" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="7"/>
+      <c r="F292" s="8">
+        <v>45777</v>
+      </c>
+      <c r="G292" s="5"/>
+      <c r="H292" s="6"/>
+      <c r="I292" s="30">
+        <v>19.260000000000002</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A293" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C293" s="7"/>
+      <c r="D293" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="7"/>
+      <c r="F293" s="8">
+        <v>45747</v>
+      </c>
+      <c r="G293" s="5"/>
+      <c r="H293" s="6"/>
+      <c r="I293" s="30">
+        <v>20.638999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A294" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C294" s="7"/>
+      <c r="D294" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="7"/>
+      <c r="F294" s="8">
+        <v>45716</v>
+      </c>
+      <c r="G294" s="5"/>
+      <c r="H294" s="6"/>
+      <c r="I294" s="30">
+        <v>21.536000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A295" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C295" s="7"/>
+      <c r="D295" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="7"/>
+      <c r="F295" s="8">
+        <v>45688</v>
+      </c>
+      <c r="G295" s="5"/>
+      <c r="H295" s="6"/>
+      <c r="I295" s="30">
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A296" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C296" s="7"/>
+      <c r="D296" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" s="7"/>
+      <c r="F296" s="8">
+        <v>45657</v>
+      </c>
+      <c r="G296" s="5"/>
+      <c r="H296" s="6"/>
+      <c r="I296" s="30">
+        <v>21.518999999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A297" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C297" s="7"/>
+      <c r="D297" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="7"/>
+      <c r="F297" s="8">
+        <v>45626</v>
+      </c>
+      <c r="G297" s="5"/>
+      <c r="H297" s="6"/>
+      <c r="I297" s="30">
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A298" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C298" s="7"/>
+      <c r="D298" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="7"/>
+      <c r="F298" s="8">
+        <v>45596</v>
+      </c>
+      <c r="G298" s="5"/>
+      <c r="H298" s="6"/>
+      <c r="I298" s="30">
+        <v>21.094000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A299" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C299" s="7"/>
+      <c r="D299" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="7"/>
+      <c r="F299" s="8">
+        <v>45565</v>
+      </c>
+      <c r="G299" s="5"/>
+      <c r="H299" s="6"/>
+      <c r="I299" s="30">
+        <v>21.559000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A300" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C300" s="7"/>
+      <c r="D300" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="7"/>
+      <c r="F300" s="8">
+        <v>45535</v>
+      </c>
+      <c r="G300" s="5"/>
+      <c r="H300" s="6"/>
+      <c r="I300" s="30">
+        <v>20.131</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A301" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C301" s="7"/>
+      <c r="D301" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" s="7"/>
+      <c r="F301" s="8">
+        <v>45504</v>
+      </c>
+      <c r="G301" s="5"/>
+      <c r="H301" s="6"/>
+      <c r="I301" s="30">
+        <v>20.224</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A302" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C302" s="7"/>
+      <c r="D302" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="7"/>
+      <c r="F302" s="8">
+        <v>45473</v>
+      </c>
+      <c r="G302" s="5"/>
+      <c r="H302" s="6"/>
+      <c r="I302" s="30">
+        <v>20.669</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A303" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C303" s="7"/>
+      <c r="D303" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" s="7"/>
+      <c r="F303" s="8">
+        <v>45443</v>
+      </c>
+      <c r="G303" s="5"/>
+      <c r="H303" s="6"/>
+      <c r="I303" s="30">
+        <v>19.733000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A304" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C304" s="7"/>
+      <c r="D304" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" s="7"/>
+      <c r="F304" s="8">
+        <v>45412</v>
+      </c>
+      <c r="G304" s="5"/>
+      <c r="H304" s="6"/>
+      <c r="I304" s="30">
+        <v>19.837</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A305" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C305" s="7"/>
+      <c r="D305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="7"/>
+      <c r="F305" s="8">
+        <v>45382</v>
+      </c>
+      <c r="G305" s="5"/>
+      <c r="H305" s="6"/>
+      <c r="I305" s="30">
+        <v>19.509</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B306" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C306" s="20"/>
+      <c r="D306" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="20"/>
+      <c r="F306" s="22">
+        <v>46023</v>
+      </c>
+      <c r="G306" s="21"/>
+      <c r="H306" s="23"/>
+      <c r="I306" s="29">
+        <v>98.02</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A307" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C307" s="7"/>
+      <c r="D307" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="7"/>
+      <c r="F307" s="8">
+        <f>EOMONTH(F306,-2)+1</f>
+        <v>45992</v>
+      </c>
+      <c r="G307" s="5"/>
+      <c r="H307" s="6"/>
+      <c r="I307" s="30">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A308" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C308" s="7"/>
+      <c r="D308" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" s="7"/>
+      <c r="F308" s="8">
+        <f t="shared" ref="F308:F328" si="8">EOMONTH(F307,-2)+1</f>
+        <v>45962</v>
+      </c>
+      <c r="G308" s="5"/>
+      <c r="H308" s="6"/>
+      <c r="I308" s="30">
+        <v>100.94</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A309" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C309" s="7"/>
+      <c r="D309" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" s="7"/>
+      <c r="F309" s="8">
+        <f t="shared" si="8"/>
+        <v>45931</v>
+      </c>
+      <c r="G309" s="5"/>
+      <c r="H309" s="6"/>
+      <c r="I309" s="30">
+        <v>106.89</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A310" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C310" s="7"/>
+      <c r="D310" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="7"/>
+      <c r="F310" s="8">
+        <f t="shared" si="8"/>
+        <v>45901</v>
+      </c>
+      <c r="G310" s="5"/>
+      <c r="H310" s="6"/>
+      <c r="I310" s="30">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A311" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C311" s="7"/>
+      <c r="D311" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" s="7"/>
+      <c r="F311" s="8">
+        <f t="shared" si="8"/>
+        <v>45870</v>
+      </c>
+      <c r="G311" s="5"/>
+      <c r="H311" s="6"/>
+      <c r="I311" s="30">
+        <v>92.04</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A312" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C312" s="7"/>
+      <c r="D312" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" s="7"/>
+      <c r="F312" s="8">
+        <f t="shared" si="8"/>
+        <v>45839</v>
+      </c>
+      <c r="G312" s="5"/>
+      <c r="H312" s="6"/>
+      <c r="I312" s="30">
+        <v>94.51</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A313" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C313" s="7"/>
+      <c r="D313" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" s="7"/>
+      <c r="F313" s="8">
+        <f t="shared" si="8"/>
+        <v>45809</v>
+      </c>
+      <c r="G313" s="5"/>
+      <c r="H313" s="6"/>
+      <c r="I313" s="30">
+        <v>87.37</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A314" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C314" s="7"/>
+      <c r="D314" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" s="7"/>
+      <c r="F314" s="8">
+        <f t="shared" si="8"/>
+        <v>45778</v>
+      </c>
+      <c r="G314" s="5"/>
+      <c r="H314" s="6"/>
+      <c r="I314" s="30">
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A315" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C315" s="7"/>
+      <c r="D315" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="7"/>
+      <c r="F315" s="8">
+        <f t="shared" si="8"/>
+        <v>45748</v>
+      </c>
+      <c r="G315" s="5"/>
+      <c r="H315" s="6"/>
+      <c r="I315" s="30">
+        <v>74.42</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A316" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C316" s="7"/>
+      <c r="D316" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" s="7"/>
+      <c r="F316" s="8">
+        <f t="shared" si="8"/>
+        <v>45717</v>
+      </c>
+      <c r="G316" s="5"/>
+      <c r="H316" s="6"/>
+      <c r="I316" s="30">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A317" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C317" s="7"/>
+      <c r="D317" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" s="7"/>
+      <c r="F317" s="8">
+        <f t="shared" si="8"/>
+        <v>45689</v>
+      </c>
+      <c r="G317" s="5"/>
+      <c r="H317" s="6"/>
+      <c r="I317" s="30">
+        <v>87.14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A318" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C318" s="7"/>
+      <c r="D318" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" s="7"/>
+      <c r="F318" s="8">
+        <f t="shared" si="8"/>
+        <v>45658</v>
+      </c>
+      <c r="G318" s="5"/>
+      <c r="H318" s="6"/>
+      <c r="I318" s="30">
+        <v>91.85</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A319" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C319" s="7"/>
+      <c r="D319" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" s="7"/>
+      <c r="F319" s="8">
+        <f t="shared" si="8"/>
+        <v>45627</v>
+      </c>
+      <c r="G319" s="5"/>
+      <c r="H319" s="6"/>
+      <c r="I319" s="30">
+        <v>92.45</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A320" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C320" s="7"/>
+      <c r="D320" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" s="7"/>
+      <c r="F320" s="8">
+        <f t="shared" si="8"/>
+        <v>45597</v>
+      </c>
+      <c r="G320" s="5"/>
+      <c r="H320" s="6"/>
+      <c r="I320" s="30">
+        <v>89.62</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A321" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C321" s="7"/>
+      <c r="D321" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" s="7"/>
+      <c r="F321" s="8">
+        <f t="shared" si="8"/>
+        <v>45566</v>
+      </c>
+      <c r="G321" s="5"/>
+      <c r="H321" s="6"/>
+      <c r="I321" s="30">
+        <v>83.04</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A322" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C322" s="7"/>
+      <c r="D322" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" s="7"/>
+      <c r="F322" s="8">
+        <f t="shared" si="8"/>
+        <v>45536</v>
+      </c>
+      <c r="G322" s="5"/>
+      <c r="H322" s="6"/>
+      <c r="I322" s="30">
+        <v>81.290000000000006</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A323" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C323" s="7"/>
+      <c r="D323" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" s="7"/>
+      <c r="F323" s="8">
+        <f t="shared" si="8"/>
+        <v>45505</v>
+      </c>
+      <c r="G323" s="5"/>
+      <c r="H323" s="6"/>
+      <c r="I323" s="30">
+        <v>79.95</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A324" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C324" s="7"/>
+      <c r="D324" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" s="7"/>
+      <c r="F324" s="8">
+        <f t="shared" si="8"/>
+        <v>45474</v>
+      </c>
+      <c r="G324" s="5"/>
+      <c r="H324" s="6"/>
+      <c r="I324" s="30">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A325" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C325" s="7"/>
+      <c r="D325" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" s="7"/>
+      <c r="F325" s="8">
+        <f t="shared" si="8"/>
+        <v>45444</v>
+      </c>
+      <c r="G325" s="5"/>
+      <c r="H325" s="6"/>
+      <c r="I325" s="30">
+        <v>84.67</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A326" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C326" s="7"/>
+      <c r="D326" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E326" s="7"/>
+      <c r="F326" s="8">
+        <f t="shared" si="8"/>
+        <v>45413</v>
+      </c>
+      <c r="G326" s="5"/>
+      <c r="H326" s="6"/>
+      <c r="I326" s="30">
+        <v>74.95</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A327" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C327" s="7"/>
+      <c r="D327" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327" s="7"/>
+      <c r="F327" s="8">
+        <f t="shared" si="8"/>
+        <v>45383</v>
+      </c>
+      <c r="G327" s="5"/>
+      <c r="H327" s="6"/>
+      <c r="I327" s="30">
+        <v>72.06</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A328" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B328" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C328" s="33"/>
+      <c r="D328" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E328" s="33"/>
+      <c r="F328" s="8">
+        <f t="shared" si="8"/>
+        <v>45352</v>
+      </c>
+      <c r="G328" s="34"/>
+      <c r="H328" s="36"/>
+      <c r="I328" s="37">
+        <v>74.64</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C329" s="20"/>
+      <c r="D329" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329" s="20"/>
+      <c r="F329" s="22">
+        <v>45838</v>
+      </c>
+      <c r="G329" s="21"/>
+      <c r="H329" s="23"/>
+      <c r="I329" s="29">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A330" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B330" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C330" s="33"/>
+      <c r="D330" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E330" s="33"/>
+      <c r="F330" s="35">
+        <v>45930</v>
+      </c>
+      <c r="G330" s="34"/>
+      <c r="H330" s="36"/>
+      <c r="I330" s="37">
+        <v>100.33</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B331" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C331" s="40"/>
+      <c r="D331" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331" s="40"/>
+      <c r="F331" s="44">
+        <v>45689</v>
+      </c>
+      <c r="G331" s="41"/>
+      <c r="H331" s="42"/>
+      <c r="I331" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B332" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C332" s="47"/>
+      <c r="D332" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332" s="47"/>
+      <c r="F332" s="49">
+        <v>45658</v>
+      </c>
+      <c r="G332" s="48"/>
+      <c r="H332" s="50"/>
+      <c r="I332" s="51">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A333" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C333" s="7"/>
+      <c r="D333" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333" s="7"/>
+      <c r="F333" s="8">
+        <f>EOMONTH(F331,-2)+1</f>
+        <v>45658</v>
+      </c>
+      <c r="G333" s="5"/>
+      <c r="H333" s="6"/>
+      <c r="I333" s="30">
+        <v>99.82</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A334" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C334" s="7"/>
+      <c r="D334" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" s="7"/>
+      <c r="F334" s="8">
+        <f t="shared" ref="F334:F343" si="9">EOMONTH(F333,-2)+1</f>
+        <v>45627</v>
+      </c>
+      <c r="G334" s="5"/>
+      <c r="H334" s="6"/>
+      <c r="I334" s="30">
+        <v>99.64</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A335" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C335" s="7"/>
+      <c r="D335" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335" s="7"/>
+      <c r="F335" s="8">
+        <f t="shared" si="9"/>
+        <v>45597</v>
+      </c>
+      <c r="G335" s="5"/>
+      <c r="H335" s="6"/>
+      <c r="I335" s="30">
+        <v>99.34</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A336" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C336" s="7"/>
+      <c r="D336" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E336" s="7"/>
+      <c r="F336" s="8">
+        <f t="shared" si="9"/>
+        <v>45566</v>
+      </c>
+      <c r="G336" s="5"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="30">
+        <v>99.12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A337" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C337" s="7"/>
+      <c r="D337" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E337" s="7"/>
+      <c r="F337" s="8">
+        <f t="shared" si="9"/>
+        <v>45536</v>
+      </c>
+      <c r="G337" s="5"/>
+      <c r="H337" s="6"/>
+      <c r="I337" s="30">
+        <v>98.83</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A338" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C338" s="7"/>
+      <c r="D338" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E338" s="7"/>
+      <c r="F338" s="8">
+        <f t="shared" si="9"/>
+        <v>45505</v>
+      </c>
+      <c r="G338" s="5"/>
+      <c r="H338" s="6"/>
+      <c r="I338" s="30">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A339" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C339" s="7"/>
+      <c r="D339" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" s="7"/>
+      <c r="F339" s="8">
+        <f t="shared" si="9"/>
+        <v>45474</v>
+      </c>
+      <c r="G339" s="5"/>
+      <c r="H339" s="6"/>
+      <c r="I339" s="30">
+        <v>98.15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C340" s="7"/>
+      <c r="D340" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="7"/>
+      <c r="F340" s="8">
+        <f t="shared" si="9"/>
+        <v>45444</v>
+      </c>
+      <c r="G340" s="5"/>
+      <c r="H340" s="6"/>
+      <c r="I340" s="30">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A341" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C341" s="7"/>
+      <c r="D341" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341" s="7"/>
+      <c r="F341" s="8">
+        <f t="shared" si="9"/>
+        <v>45413</v>
+      </c>
+      <c r="G341" s="5"/>
+      <c r="H341" s="6"/>
+      <c r="I341" s="30">
+        <v>97.64</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C342" s="7"/>
+      <c r="D342" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="7"/>
+      <c r="F342" s="8">
+        <f t="shared" si="9"/>
+        <v>45383</v>
+      </c>
+      <c r="G342" s="5"/>
+      <c r="H342" s="6"/>
+      <c r="I342" s="30">
+        <v>97.42</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A343" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C343" s="7"/>
+      <c r="D343" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E343" s="7"/>
+      <c r="F343" s="8">
+        <f t="shared" si="9"/>
+        <v>45352</v>
+      </c>
+      <c r="G343" s="5"/>
+      <c r="H343" s="6"/>
+      <c r="I343" s="30">
+        <v>97.13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B344" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C344" s="40"/>
+      <c r="D344" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" s="40"/>
+      <c r="F344" s="44">
+        <v>46052</v>
+      </c>
+      <c r="G344" s="41"/>
+      <c r="H344" s="42"/>
+      <c r="I344" s="43">
+        <v>40.47</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A345" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C345" s="7"/>
+      <c r="D345" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345" s="7"/>
+      <c r="F345" s="8">
+        <f>+F344-1</f>
+        <v>46051</v>
+      </c>
+      <c r="G345" s="5"/>
+      <c r="H345" s="6"/>
+      <c r="I345" s="30">
+        <v>44.31</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A346" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C346" s="7"/>
+      <c r="D346" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" s="7"/>
+      <c r="F346" s="8">
+        <f t="shared" ref="F346:F353" si="10">+F345-1</f>
+        <v>46050</v>
+      </c>
+      <c r="G346" s="5"/>
+      <c r="H346" s="6"/>
+      <c r="I346" s="30">
+        <v>45.81</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A347" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C347" s="7"/>
+      <c r="D347" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E347" s="7"/>
+      <c r="F347" s="8">
+        <f t="shared" si="10"/>
+        <v>46049</v>
+      </c>
+      <c r="G347" s="5"/>
+      <c r="H347" s="6"/>
+      <c r="I347" s="30">
+        <v>44.51</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A348" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C348" s="7"/>
+      <c r="D348" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" s="7"/>
+      <c r="F348" s="8">
+        <f t="shared" si="10"/>
+        <v>46048</v>
+      </c>
+      <c r="G348" s="5"/>
+      <c r="H348" s="6"/>
+      <c r="I348" s="30">
+        <v>47.86</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A349" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C349" s="7"/>
+      <c r="D349" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" s="7"/>
+      <c r="F349" s="8">
+        <v>46045</v>
+      </c>
+      <c r="G349" s="5"/>
+      <c r="H349" s="6"/>
+      <c r="I349" s="30">
+        <v>45.69</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A350" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C350" s="7"/>
+      <c r="D350" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="7"/>
+      <c r="F350" s="8">
+        <f t="shared" si="10"/>
+        <v>46044</v>
+      </c>
+      <c r="G350" s="5"/>
+      <c r="H350" s="6"/>
+      <c r="I350" s="30">
+        <v>44.71</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A351" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C351" s="7"/>
+      <c r="D351" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351" s="7"/>
+      <c r="F351" s="8">
+        <f t="shared" si="10"/>
+        <v>46043</v>
+      </c>
+      <c r="G351" s="5"/>
+      <c r="H351" s="6"/>
+      <c r="I351" s="30">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A352" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C352" s="7"/>
+      <c r="D352" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" s="7"/>
+      <c r="F352" s="8">
+        <f t="shared" si="10"/>
+        <v>46042</v>
+      </c>
+      <c r="G352" s="5"/>
+      <c r="H352" s="6"/>
+      <c r="I352" s="30">
+        <v>42.54</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A353" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C353" s="7"/>
+      <c r="D353" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" s="7"/>
+      <c r="F353" s="8">
+        <f t="shared" si="10"/>
+        <v>46041</v>
+      </c>
+      <c r="G353" s="5"/>
+      <c r="H353" s="6"/>
+      <c r="I353" s="30">
+        <v>42.5</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:A49">
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="BTP">
+  <conditionalFormatting sqref="A26:A50">
+    <cfRule type="containsText" dxfId="29" priority="25" stopIfTrue="1" operator="containsText" text="BTP">
       <formula>NOT(ISERROR(SEARCH("BTP",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>IF(AND(ISNUMBER(SEARCH("H2O", A26)), ISNUMBER(SEARCH("SP", A26))), 1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="A98">
+    <cfRule type="containsText" dxfId="27" priority="23" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A98)), ISNUMBER(SEARCH("SP", A98))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="containsText" dxfId="25" priority="21" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="22" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A122)), ISNUMBER(SEARCH("SP", A122))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145">
+    <cfRule type="containsText" dxfId="23" priority="19" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A145)), ISNUMBER(SEARCH("SP", A145))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168">
+    <cfRule type="containsText" dxfId="21" priority="17" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A168)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="18" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A168)), ISNUMBER(SEARCH("SP", A168))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191">
+    <cfRule type="containsText" dxfId="19" priority="15" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A191)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A191)), ISNUMBER(SEARCH("SP", A191))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214">
+    <cfRule type="containsText" dxfId="17" priority="13" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A214)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A214)), ISNUMBER(SEARCH("SP", A214))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A237">
+    <cfRule type="containsText" dxfId="15" priority="11" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A237)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A237)), ISNUMBER(SEARCH("SP", A237))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A260">
+    <cfRule type="containsText" dxfId="13" priority="9" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A260)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A260)), ISNUMBER(SEARCH("SP", A260))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A283">
+    <cfRule type="containsText" dxfId="11" priority="7" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A283)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A283)), ISNUMBER(SEARCH("SP", A283))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A306">
+    <cfRule type="containsText" dxfId="9" priority="5" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A306)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A306)), ISNUMBER(SEARCH("SP", A306))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A329">
+    <cfRule type="containsText" dxfId="7" priority="3" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A329)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A329)), ISNUMBER(SEARCH("SP", A329))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A344">
     <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="BTP">
-      <formula>NOT(ISERROR(SEARCH("BTP",A50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("BTP",A344)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A50)), ISNUMBER(SEARCH("SP", A50))), 1,0)</formula>
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A344)), ISNUMBER(SEARCH("SP", A344))), 1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G48" xr:uid="{786B1B08-543B-41BE-8266-499A04655516}">
       <formula1>"Acquisto,Vendita,-"</formula1>
     </dataValidation>
@@ -3323,14 +9335,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3341,7 +9353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -3352,7 +9364,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3363,7 +9375,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3374,7 +9386,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -3385,7 +9397,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -3396,7 +9408,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -3407,7 +9419,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -3418,7 +9430,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -3429,7 +9441,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -3440,7 +9452,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -3451,7 +9463,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -3462,7 +9474,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -3473,7 +9485,7 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -3484,7 +9496,7 @@
         <v>45702</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -3495,7 +9507,7 @@
         <v>45702</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -3506,7 +9518,7 @@
         <v>45702</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -3517,7 +9529,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -3528,7 +9540,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
@@ -3539,7 +9551,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>29</v>
       </c>
@@ -3550,7 +9562,7 @@
         <v>46044</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>30</v>
       </c>
@@ -3561,7 +9573,7 @@
         <v>46044</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3572,7 +9584,7 @@
         <v>46044</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
